--- a/data/LL97Parameters .xlsx
+++ b/data/LL97Parameters .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulr\Documents\R\cbwg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD19048E-984D-4E4E-9160-63C937A58693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B159F5-8FA1-40F7-8719-9886F9477053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10882" yWindow="3945" windowWidth="9638" windowHeight="8003" activeTab="1" xr2:uid="{D1FF0304-57B1-418A-BA32-60C9B26F52A1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{D1FF0304-57B1-418A-BA32-60C9B26F52A1}"/>
   </bookViews>
   <sheets>
     <sheet name="EmissionsLimits" sheetId="2" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>Electric</t>
-  </si>
-  <si>
     <t>N.Gas</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>Period</t>
+  </si>
+  <si>
+    <t>Elect</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -919,7 +919,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -940,12 +940,12 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>2.8896199999999998E-4</v>
@@ -959,13 +959,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>5.3109999999999998E-5</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>2024</v>
@@ -973,13 +973,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>7.4209999999999996E-5</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>2024</v>
@@ -987,13 +987,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>7.5290000000000006E-5</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>2024</v>
@@ -1001,13 +1001,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>4.4929999999999998E-5</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>2024</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/LL97Parameters .xlsx
+++ b/data/LL97Parameters .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulr\Documents\R\cbwg\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prode\Documents\R\cbwg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B159F5-8FA1-40F7-8719-9886F9477053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139ACF77-8FDE-40CF-B7F3-8F8E856C0644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{D1FF0304-57B1-418A-BA32-60C9B26F52A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{D1FF0304-57B1-418A-BA32-60C9B26F52A1}"/>
   </bookViews>
   <sheets>
     <sheet name="EmissionsLimits" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -95,9 +94,6 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>N.Gas</t>
-  </si>
-  <si>
     <t xml:space="preserve"> tCO2e/kbtu</t>
   </si>
   <si>
@@ -117,6 +113,9 @@
   </si>
   <si>
     <t>Elect</t>
+  </si>
+  <si>
+    <t>NGas</t>
   </si>
 </sst>
 </file>
@@ -536,9 +535,9 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -552,17 +551,17 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -579,7 +578,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -596,7 +595,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -613,7 +612,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -630,7 +629,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -647,7 +646,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="82.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="104" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,7 +663,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,7 +680,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -698,7 +697,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -715,7 +714,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -732,7 +731,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -749,7 +748,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -766,7 +765,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -783,7 +782,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -800,7 +799,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -817,7 +816,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="82.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="104" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>6</v>
       </c>
@@ -834,7 +833,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>7</v>
       </c>
@@ -851,7 +850,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>8</v>
       </c>
@@ -868,7 +867,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>9</v>
       </c>
@@ -885,7 +884,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -919,17 +918,17 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -940,12 +939,12 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>26</v>
       </c>
       <c r="B2">
         <v>2.8896199999999998E-4</v>
@@ -957,65 +956,65 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>5.3109999999999998E-5</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>20</v>
-      </c>
-      <c r="D3">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>21</v>
       </c>
       <c r="B4">
         <v>7.4209999999999996E-5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>7.5290000000000006E-5</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>4.4929999999999998E-5</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/LL97Parameters .xlsx
+++ b/data/LL97Parameters .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prode\Documents\R\cbwg\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulr\Documents\R\cbwg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139ACF77-8FDE-40CF-B7F3-8F8E856C0644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332EE36C-3D50-4C34-86D4-1AEE9930A4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{D1FF0304-57B1-418A-BA32-60C9B26F52A1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{D1FF0304-57B1-418A-BA32-60C9B26F52A1}"/>
   </bookViews>
   <sheets>
     <sheet name="EmissionsLimits" sheetId="2" r:id="rId1"/>
@@ -115,7 +115,7 @@
     <t>Elect</t>
   </si>
   <si>
-    <t>NGas</t>
+    <t>N.Gas</t>
   </si>
 </sst>
 </file>
@@ -531,13 +531,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCE84EB-C7BC-4F18-906D-C064ED8CD411}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -554,14 +554,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -578,7 +578,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -595,7 +595,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -612,7 +612,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -629,7 +629,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -646,7 +646,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="104" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="82.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -663,7 +663,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -680,7 +680,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -697,7 +697,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -714,7 +714,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -731,7 +731,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -748,7 +748,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -765,7 +765,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -782,7 +782,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -799,7 +799,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -816,7 +816,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="104" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="82.5" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>6</v>
       </c>
@@ -833,7 +833,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>7</v>
       </c>
@@ -850,7 +850,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>8</v>
       </c>
@@ -867,7 +867,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>9</v>
       </c>
@@ -884,7 +884,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -917,18 +917,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB4C270-8367-408D-97D0-8C243C8344D5}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -942,7 +942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -956,7 +956,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -970,7 +970,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -984,7 +984,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -998,7 +998,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>23</v>
       </c>

--- a/data/LL97Parameters .xlsx
+++ b/data/LL97Parameters .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulr\Documents\R\cbwg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332EE36C-3D50-4C34-86D4-1AEE9930A4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE4186F-7D44-4628-BDE5-C2B952EB5CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{D1FF0304-57B1-418A-BA32-60C9B26F52A1}"/>
+    <workbookView xWindow="11820" yWindow="2475" windowWidth="9638" windowHeight="8002" activeTab="1" xr2:uid="{D1FF0304-57B1-418A-BA32-60C9B26F52A1}"/>
   </bookViews>
   <sheets>
     <sheet name="EmissionsLimits" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>Occupancy group</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Steam</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Period</t>
   </si>
   <si>
@@ -116,6 +113,15 @@
   </si>
   <si>
     <t>N.Gas</t>
+  </si>
+  <si>
+    <t>Oil1</t>
+  </si>
+  <si>
+    <t>Oil56</t>
+  </si>
+  <si>
+    <t>Diesel</t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCE84EB-C7BC-4F18-906D-C064ED8CD411}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -551,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -915,10 +921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB4C270-8367-408D-97D0-8C243C8344D5}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -939,12 +945,12 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>2.8896199999999998E-4</v>
@@ -958,7 +964,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>5.3109999999999998E-5</v>
@@ -1013,8 +1019,45 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>23</v>
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>7.4209999999999996E-5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>7.5290000000000006E-5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>7.5290000000000006E-5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
